--- a/medicine/Psychotrope/Liste_de_chansons_ayant_trait_aux_psychotropes/Liste_de_chansons_ayant_trait_aux_psychotropes.xlsx
+++ b/medicine/Psychotrope/Liste_de_chansons_ayant_trait_aux_psychotropes/Liste_de_chansons_ayant_trait_aux_psychotropes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cette page liste des chansons ayant trait aux psychotropes. Elle inclut des chansons strictement liées aux drogues, au trafic et à l'usage de ces substances.
@@ -515,10 +527,49 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0-9
-40oz — D-12
-A
-À jeun — Jacques Brel [Jacques Brel / Gérard Jouannest ; 1967]
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>40oz — D-12</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À jeun — Jacques Brel [Jacques Brel / Gérard Jouannest ; 1967]
 Alabama Song - The Doors
 Alcohol — Beck
 Alcohol — Barenaked Ladies
@@ -532,21 +583,55 @@
 L'alcool rend con — Les Betteraves
 Alcoolo — Raggasonic
 Alka-Seltzer - Svinkels
-Amsterdam — Jacques Brel [1964]
+Amsterdam — Jacques Brel 
 An Attempt To Tip The Scales — Bright Eyes
 Anesthetize - Porcupine Tree
 Arc Of Time — Bright Eyes
 Arrested for driving while blind - ZZ Top
-L'Auto-stoppeuse — Renaud [1980]
-B
-Bacardi — Nada Surf
+L'Auto-stoppeuse — Renaud </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bacardi — Nada Surf
 Beer Beer — Korpiklaani
 Beer Drinkers And Hell Raisers — ZZ Top
 Beer Girl — 2 Stone 2 Skank
 Betty — Saez
-La Bière — Jacques Brel [1968]
-La Bière — Les Garçons Bouchers[1]
-Le Bistrot — Georges Brassens [1960]
+La Bière — Jacques Brel 
+La Bière — Les Garçons Bouchers
+Le Bistrot — Georges Brassens 
 Blueberry yum yum — Ludacris
 Bob — NOFX
 Bois mes paroles — Svinkels
@@ -556,12 +641,46 @@
 Bourré bourré ratatam — Les Garçons Bouchers
 Bring us pints of Beer — Korpiklaani
 Burn It to the Ground –  Nickelback
-Buvons vin de Clisson — Tri Yann
-C
-C'est mon dernier bal —  Renaud [1978]
-Ça je ne l’ai jamais vu —  Graeme Allwright [1966]
+Buvons vin de Clisson — Tri Yann</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C'est mon dernier bal —  Renaud 
+Ça je ne l’ai jamais vu —  Graeme Allwright 
 Chasse, Pêche et biture — Les Fatals Picards
-Chien d'ivrognes — Allain Leprest [1994]
+Chien d'ivrognes — Allain Leprest 
 Cigarettes and alcohol - Oasis
 Cigarettes, whisky and wild women - Sons of the Pioneers [ Tim Spencer ; 1947 ]
 traduite sous le titre  Cigarettes, whisky et p'tites pépées, plusieurs interprètes l'ont enregistrée, comme Philippe Clay, Annie Cordy, Guy Marchand, Eddie Constantine, Gilles Dreu, Claude Carrère, Buzy ou Lucky Blondo.
@@ -586,14 +705,48 @@
 C-real killer — Svinkels
 Cultivateur moderne — Pierpoljak
 Chandelier - Sia
-Cocaine In My Brain - Dillinger
-D
-Le Délire de deux alcooliques - Les Ogres de Barback
+Cocaine In My Brain - Dillinger</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Délire de deux alcooliques - Les Ogres de Barback
 Demon Alcohol — Ozzy Osbourne
 Des trous dans la tête — Orelsan
 Désolé pour hier soir — Tryo
 Docteur Renaud, Mister Renard - Renaud [ Renaud Séchan / Jean-Pierre Bucolo ; 2003 ]
-Le Diable dans la bouteille — Juliette [2013]
+Le Diable dans la bouteille — Juliette 
 Donne du rhum à ton homme — Georges Moustaki
 Donnez nous des bars — Soldat Louis
 Drink — Alestorm
@@ -603,33 +756,203 @@
 Drunken Sailor — The Irish Rovers (en)
 Drunk In The Morning — Kid Rock
 Drunk Kid Catholic — Bright Eyes
-Du beaujolais - Les Garçons Bouchers[1]
+Du beaujolais - Les Garçons Bouchers
 Du rhum, des femmes — Soldat Louis
-Dames blanches — Sefyu
-E
-Et je bois — Yves Jamait
+Dames blanches — Sefyu</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Et je bois — Yves Jamait
 El urgencia — Hollywood Undead
 Encore un rhum - Soldat Louis
-Everyday I'm drinking — Little Big
-F
-Feb 15th — Bright Eyes
+Everyday I'm drinking — Little Big</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Feb 15th — Bright Eyes
 Fear Of A Blank Planet - Porcupine Tree
 Fonceder - MZ
 La Fée verte - Kasabian
-La Fille à Qui je pense — Johnny Hallyday
-G
-Gin and Juice — Snoop Dogg
+La Fille à Qui je pense — Johnny Hallyday</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Gin and Juice — Snoop Dogg
 Go to Work Wasted — NOFX
-Le Grand Pan — Georges Brassens [1965]
-Green eyed love — Mayer Hawthorne
-H
-Happy hour — Svinkels
+Le Grand Pan — Georges Brassens 
+Green eyed love — Mayer Hawthorne</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Happy hour — Svinkels
 Hit The Switch — Bright Eyes
 Hitchin a Ride — Green Day
 Hits from da bong — Cypress Hill
-Humble Thought — Sizzla
-I
-If Winter Ends — Bright Eyes
+Humble Thought — Sizzla</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>If Winter Ends — Bright Eyes
 I Got One For Ya — Kid Rock
 I Gotta Get Drunk — George Jones et Willie Nelson
 I Need Alcohol — Swans
@@ -638,26 +961,162 @@
 Intoxicated Man — Serge Gainsbourg
 It's Cool, We Can Still Be Friends — Bright Eyes (whisky)
 I Drink Alone — George Thorogood
-L'Ivrogne — Jacques Brel [ Jacques Brel / Gérard Jouannest - François Rauber ; 1961 ]
-J
-Je bois  — Boris Vian
+L'Ivrogne — Jacques Brel [ Jacques Brel / Gérard Jouannest - François Rauber ; 1961 ]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Je bois  — Boris Vian
 Je bois et je suis le roi — Gogol Premier
 Je descends le bar — Pierpoljak
 J'suis F — Tout simplement noir
 Je suis sous... — Claude Nougaro
-Jef — Jacques Brel [1964]
-K
-La Kermesse — Allain Leprest [1986]
-L
-La La Land - Green Velvet
+Jef — Jacques Brel </t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Kermesse — Allain Leprest </t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>La La Land - Green Velvet
 Légalisez l'héroïne — Vulgaires Machins
 Let's All Get Drunk — Afroman
 Let's Drink — Korpiklaani
 Let's Go Get Stoned — Joe Cocker
 Love me — Lil Wayne
-L’histoire d’un ado -Zgroop
-M
-Mad solar - Kid Cudi
+L’histoire d’un ado -Zgroop</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mad solar - Kid Cudi
 Manger c'est tricher - Les Casseurs Flowters
 Man Overboard — Blink-182
 Marée Basse — Les amis d'ta femme
@@ -671,39 +1130,243 @@
 Mon bistrot préféré - Renaud [ Renaud Séchan / Jean-Pierre Bucolo ; 2003 ]
 Mr. Tambourine Man — Bob Dylan
 Monsieur Capone — Barbara [ François Wertheimer / Barbara ; 1973 ]
-Must be the Ganja - Eminem
-N
-Nightrain — Guns N' Roses
+Must be the Ganja - Eminem</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Nightrain — Guns N' Roses
 Non non non non (je ne suis plus saoul) — Miossec (la plupart des chansons de l'album Boire font référence à l'alcool)
-Nyctalopus Airline — Hubert-Félix Thiéfaine
-O
-Obsession 68 — Sophie Makhno
+Nyctalopus Airline — Hubert-Félix Thiéfaine</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Obsession 68 — Sophie Makhno
 Olga — Juliette Gréco
-Old time sake - Eminem
-P
-Pass It Around — The Donnas
+Old time sake - Eminem</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Pass It Around — The Donnas
 Pass the Courvoisier — Busta Rhymes
-Les Paumés du petit matin — Jacques Brel [1962]
-Pauvre Lelian — Allain Leprest [2008]
-Petite Messe solennelle — Juliette [2008]
+Les Paumés du petit matin — Jacques Brel 
+Pauvre Lelian — Allain Leprest 
+Petite Messe solennelle — Juliette 
 Pochtron — Renaud
-Poison whisky — Lynyrd Skynyrd
-Q
-Quand ton père t’engueule - Les Casseurs Flowters
-R
-Red Red Wine — Neil Diamond reprise ensuite par UB40
-Rhum-Pomme — Juliette [2011]
+Poison whisky — Lynyrd Skynyrd</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Quand ton père t’engueule - Les Casseurs Flowters</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Red Red Wine — Neil Diamond reprise ensuite par UB40
+Rhum-Pomme — Juliette 
 Richard — Léo Ferré (1973)
 Robert  — Les Fatals Picards
 Roll Me Up — Willie Nelson avec Snoop Dogg, Kris Kristofferson
-La Rose, la bouteille et la poignée de main — Georges Brassens [1969]
+La Rose, la bouteille et la poignée de main — Georges Brassens 
 Rehab - Amy Winehouse
-Rue Blondin — Allain Leprest [1992]
-Rue d'la soif — Saez
-S
-Sacrée bouteille — Graeme Allwright
+Rue Blondin — Allain Leprest 
+Rue d'la soif — Saez</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Sacrée bouteille — Graeme Allwright
 Sadism — AYA
-Saint Max — Allain Leprest [1988]
+Saint Max — Allain Leprest 
 Seeing double at the triple rock - NOFX
 Seven Drunken Nights — The Dubliners
 Sex, accordéon et alcool — Java
@@ -720,12 +1383,46 @@
 Southern State — Bright Eyes
 Spark Another Owl — Cypress Hill
 Sur la colline — Thomas Winter et Bogue
-Sweet Leaf — Black Sabbath
-T
-Take it off - The Donnas
+Sweet Leaf — Black Sabbath</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Take it off - The Donnas
 Ta Katie t'a quitté - Boby Lapointe
 Tapis rouge — Svinkels
-Le Temps de finir la bouteille — Allain Leprest [2005]
+Le Temps de finir la bouteille — Allain Leprest 
 Tennessee Jed — Grateful Dead (Jack Daniels whiskey)
 Tequila — Korpiklaani
 Tequila Sunrise - Cypress Hill
@@ -740,19 +1437,121 @@
 The worst hangover ever — The Offspring
 Tired Fe Lick Weed In A Bush — Inner Circle
 Too Drunk To Fuck — Dead Kennedys
-Trois matelots — Renaud [1985]
-Tubthumping — Chumbawamba
-U
-Un verre de whisky - Monty
-V
-Vas-y mollo Quasimodo — Allain Leprest [1992]
+Trois matelots — Renaud 
+Tubthumping — Chumbawamba</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Un verre de whisky - Monty</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Vas-y mollo Quasimodo — Allain Leprest 
 Viens boire un p'tit coup à la maison —  Licence IV
 Le Vin — Georges Brassens
 Le Vin de l'assassin — Charles Baudelaire et Léo Ferré (1967)
 Vodka — Korpiklaani
-Vodka — Odezenne
-W
-We Are Nowhere and It's Now — Bright Eyes
+Vodka — Odezenne</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Alcool</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>We Are Nowhere and It's Now — Bright Eyes
 Weed vs. Beer — Dilated Peoples
 Well Whiskey — Bright Eyes
 We Used to Vacation —  Cold War Kids
@@ -766,31 +1565,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Amphétamines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Amphetamine Annie —  Canned Heat
 Artificial Energy — The Byrds
@@ -810,39 +1611,78 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Cannabis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0-9
-4-20 — Method Man, Street Life &amp; Carlton Fisk
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>4-20 — Method Man, Street Life &amp; Carlton Fisk
 4-2-0 — Kottonmouth Kings
 1/2 On A Bag Of Dank — Master P
-3 Couleurs — Oldelaf et Monsieur D
-A
-Acid Raindrops — People under the stairs
+3 Couleurs — Oldelaf et Monsieur D</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Acid Raindrops — People under the stairs
  Addicted  - présent dans l'album Back to Black d'Amy Winehouse
 Adios Zapata — Renaud
 A Passage to Bangkok — Rush
@@ -852,9 +1692,43 @@
 Au summum — 113
 And I Smoke — Oai Star
 Avec Simone — Marcel et son Orchestre
-Avec un H — Les Fatals Picards
-B
-Bad Weed Blues — Bone Thugs-N-Harmony
+Avec un H — Les Fatals Picards</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bad Weed Blues — Bone Thugs-N-Harmony
 Back From The Dead — Kid Rock
 Because I got high — Afroman
 Big Tree - Stand High Patrol
@@ -871,12 +1745,46 @@
 Burn one down — Ben Harper
 Burn This MF Down - Angerfist
 Bons baisers d'Amsterdam — Billy Ze Kick et les Gamins en Folie
-Bowl For Two — The Expendables
-C
-Ca sent la Skunk — Aelpéacha &amp; J'L'Tismé
+Bowl For Two — The Expendables</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Ca sent la Skunk — Aelpéacha &amp; J'L'Tismé
 Cali-O — Too $hort
 California - Wiz Khalifa
-Cannabis — Nino Ferrer[1]
+Cannabis — Nino Ferrer
 Cannabis — Serge Gainsbourg
 Cannabis — Ska-P
 Cannabis — Ludwig von 88
@@ -896,9 +1804,43 @@
 Contretemps a la douane — Gnawa Diffusion
 Crazy Rap — Afroman
 Cultivateur Moderne — Pierpoljak
-Culture — Kana
-D
-Dans la rue Sherbrooke — Louis Chedid
+Culture — Kana</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Dans la rue Sherbrooke — Louis Chedid
 Da's Toch Dope Man! — Heideroosjes
 Dans mon char — Les Frères à Ch'val
 Dans mon HLM — Renaud
@@ -912,16 +1854,84 @@
 Dopesmoker — Sleep
 Dope Smokin Moron — The Replacements
 Douanier 007 — Sinsemilia
-Drugs — Talking Heads[2]
-Dr. Greenthumb — Cypress Hill
-E
-Easy Skankin — Bob Marley
+Drugs — Talking Heads
+Dr. Greenthumb — Cypress Hill</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Easy Skankin — Bob Marley
 El Ganja — Les Frères à Ch'val
 El Urgencia — Hollywood Undead
 Entre deux joints — Robert Charlebois
-Étienne — Guesch Patti
-F
-Fat Spliffs — Slightly Stoopid
+Étienne — Guesch Patti</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Fat Spliffs — Slightly Stoopid
 Faya Time — Blacko
 Feelin' It — Jay-Z
 Femme Libérée — Cookie Dingler
@@ -929,9 +1939,43 @@
 Fuckin' Wit Dank — Ant Banks
 Fumo — Raspigaous
 Fried Day — Bizzy Bone
-Front Porch — Twista
-G
-Ganja Babe — Michael Franti
+Front Porch — Twista</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Ganja Babe — Michael Franti
 Ganja Bus — Cypress Hill
 Ganja of Love — Jefferson Starship
 Ganja Smugglin' — Eek-A-Mouse
@@ -941,16 +1985,50 @@
 Gimme the Light — Sean Paul
 Gimme the Weed — Buju Banton
 Gin and Juice — Snoop Doggy Dogg
-Golden Brown — The Stranglers[2]
+Golden Brown — The Stranglers
 Got to Get You into My Life — The Beatles
 Gotta Stay High — New Radicals
 Grass a l'herbe — Gnawa Diffusion
-Green Day — Green Day
-H
-H — Svinkels
+Green Day — Green Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>H — Svinkels
 Hail the Leaf — Down
 Hamster Dam — Ravid'vour'voir
-Hash Pipe — Weezer (haschisch[1]
+Hash Pipe — Weezer (haschisch
 Herbalist - Alborosie
 Herbman skank — Le peuple de l'herbe
 Heureusement qu'il y a de l'herbe — Georges Moustaki
@@ -964,9 +2042,43 @@
 Homicide — Wiz Khalifa Feat. Chevy Woods
 How To Roll A Blunt — Redman
 Hydro — Octobre rouge
-High Grade — Jah Mason
-I
-I Just Want It All — Kid Ink
+High Grade — Jah Mason</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>I Just Want It All — Kid Ink
 I Get High — Styles P.
 I Got 5 On it — The Luniz
 I Like Marijuana — David Peel and the 360s
@@ -978,9 +2090,43 @@
 Illegal Smile — John Prine
 Insane In The Brain — Cypress Hill
 I'm A Weed Plant — Fishbone
-It's From The Bong — Cypress Hill
-J
-J'ai 40 ans — Cayouche
+It's From The Bong — Cypress Hill</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>J'ai 40 ans — Cayouche
 J'ai du fumer une merguez — Les Charlots
 J'ai r'trouvé ma boulette — Volo
 J'ai une copine — Pierpoljak
@@ -990,18 +2136,52 @@
 Just My Paranoia — Afroman
 Je fume — Général Alcazar
 Je fume pour oublier que tu bois — Alain Bashung
-Je fume pu d'shit — Stupeflip[3]
+Je fume pu d'shit — Stupeflip
 Je lâche pas — Lord Kossity
 J'refume du shit — Stupeflip
 Jolie Jeanne — Emma Daumas
 Johnny go! — Jean Leloup
 Just a poke — Sweet Smoke
-Juste une p'tite nuite — Les Colocs
-K
-Kanabyphilie — Freedom For King Kong
+Juste une p'tite nuite — Les Colocs</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Kanabyphilie — Freedom For King Kong
 Kana diskan — Rasta bigoud
 Katmandou Express — Sttellla
-Kaya — Bob Marley[1]
+Kaya — Bob Marley
 Keep Floatin  — Mac Miller feat Wiz Khalifa
 Keep It Rollin — Kid Ink
 Keepin' Me High — MC Eiht
@@ -1010,9 +2190,43 @@
 Kooloo Kooloo — Richard Desjardins
 Krazy — 2Pac
 Kronik — Lil' Kim (cannabis et sexe)
-Kush — Dr. Dre &amp; Snoop Dogg &amp; Akon
-L
-L'ami déchiré — Le Maximum Kouette
+Kush — Dr. Dre &amp; Snoop Dogg &amp; Akon</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>L'ami déchiré — Le Maximum Kouette
 L'apérispliff — 113
 L'apologie — Matmatah
 La 7e Compagnie en Jamaïque — Marcel et son Orchestre
@@ -1036,7 +2250,7 @@
 Le Mixionnaire — Thomas Pitiot
 Le petit voisin — Jeanne Cherhal
 Le shit squad, puis Le retour du shit squad — IAM avec Fonky Family, Faf Larage, 3e Œil, K-Rhyme Le Roi
-Legalize It — Peter Tosh (chanson exigeant la légalisation du cannabis)[4]
+Legalize It — Peter Tosh (chanson exigeant la légalisation du cannabis)
 Legalize The Herb - Macka B
 Légalisez La Ganja — Raggasonic
 L'histoire d'un ado — ZGROOP
@@ -1049,9 +2263,43 @@
 Light My Fire — The Doors
 Light Up — Styx
 Little Green Bag — George Baker Selection
-Love Stoned — Kid Cudi
-M
-Ma plante — Billy ze kick
+Love Stoned — Kid Cudi</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Ma plante — Billy ze kick
 Marie — Vybz Kartel
 Marie-Hélène — Sylvain Lelièvre
 Marijuahop 2002 — Crystal Distortion (sample répétant « Marijuana »)
@@ -1062,7 +2310,7 @@
 Marijuana — Mononc' Serge
 Marijuana — Phish
 Marijuana — Richie Spice
-Marijuana — The Fugs[1]
+Marijuana — The Fugs
 Marijuana — Yelawolf
 Marijuana Hemp Reggae — Sinsemilia et Zebda
 Marijuana In Your Brain — Lords of Acid
@@ -1087,23 +2335,125 @@
 Mottaka — Cheese
 Ms Jane — Kid Ink
 Must be the ganja - Eminem
-My mom - Eminem
-N
-No Sticks No Seeds — Kid Ink
+My mom - Eminem</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>No Sticks No Seeds — Kid Ink
 Nah Goa Jail — Peter Tosh
 Narcotic — Liquido
 No cocaïne - Alborosie
 Notorious Thugs — The Notorious B.I.G. feat. Bone Thugs-N-Harmony
 Nuage de fumée — Ideal J
-Nous fumes heureux — Les Clam's
-O
-OCB — Billy Ze Kick
+Nous fumes heureux — Les Clam's</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>OCB — Billy Ze Kick
 Officer — Slightly Stoopid
 On Point — House of Pain
-On The Porch Smokin Reefer — Twista
-P
-Pass Me Da Green — Master P
-Pass pass le oinj — NTM (chanson vantant le côté convivial du cannabis)[4]
+On The Porch Smokin Reefer — Twista</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Pass Me Da Green — Master P
+Pass pass le oinj — NTM (chanson vantant le côté convivial du cannabis)
 Pass the Dutchie — Musical Youth
 Pass the Kutchie — The Mighty Diamonds
 Party and bullshit  — The Notorious B.I.G.
@@ -1119,22 +2469,90 @@
 Prop 215 — Eek-A-Mouse
 Puff Puff Pass — Busta Flex
 Puff the Magic Dragon — Peter, Paul and Mary
-Purple Haze — Jimi Hendrix[2]
-Pusherman - Curtis Mayfield[2]
-R
-Roll it up, light it up, smoke it up — Cypress Hill
+Purple Haze — Jimi Hendrix
+Pusherman - Curtis Mayfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Roll it up, light it up, smoke it up — Cypress Hill
 Rainy Day Women #12 &amp; 35 — Bob Dylan
 Reefer Man — Cab Calloway
 Reefer Party — Wiz Khalifa
-Rip This Joint — Rolling Stones (chanson célébrant les qualités psychotropes du cannabis)[4]
+Rip This Joint — Rolling Stones (chanson célébrant les qualités psychotropes du cannabis)
 Riz Complet — Nino Ferrer
-Roll Another Number For The Road — Neil Young[1]
+Roll Another Number For The Road — Neil Young
 Roll Up The Hootie Mac — Vanilla Ice
 Rollin' On The Island — Kid Rock
 Rouleurs À L'Heure — Saï Saï
-Rest Of My Life - Kottonmouth Kings
-S
-Sell Your Dope — Afroman
+Rest Of My Life - Kottonmouth Kings</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Sell Your Dope — Afroman
 Sème ! — Aya Waska
 Sense — Rasta bigoud
 Serenity — Popof
@@ -1164,15 +2582,49 @@
 Sunday Morning Coming Down — Kris Kristofferson, repris par Johnny Cash
 "Substance" - MZ
 Sweet Leaf — Black Sabbath
-Sweet Jane  — The Velvet Underground
-T
-Take a Stroll Through Your Mind — The Temptations
+Sweet Jane  — The Velvet Underground</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Take a Stroll Through Your Mind — The Temptations
 Take Two And Pass — Gangstarr
 Tellement bon - Stupeflip
 That Good — Wiz Khalifa &amp; Snoop Dogg
 The Irony Of It All — The Streets
 The Next Episode — Dr. Dre &amp; Snoop Dogg
-The Pusher — Steppenwolf[2]
+The Pusher — Steppenwolf
 The Reefer Song (Viper Mad Blues) — Fats Waller
 The Roach (The Chronic Outro) — Dr. Dre
 The Weedman — Lil Jon
@@ -1183,15 +2635,117 @@
 Trafic — 113
 Tuba la pipa — Massilia Sound System (sur un air traditionnel de farandole)
 Tumbleweed — Afroman
-Two Joints — South Park Mexican
-U
-Pushin — Bun B Feat. Scarface &amp; Young Jeezy
-Un café un bat — Pépé et sa guitare
-V
-Variations Autour du Complexe d'Icare (l'intro) — Hubert-Félix Thiéfaine
-Viens fumer un p'tit joint — Bruno Blum
-W
-Weed — Bob Marley
+Two Joints — South Park Mexican</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Pushin — Bun B Feat. Scarface &amp; Young Jeezy
+Un café un bat — Pépé et sa guitare</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Variations Autour du Complexe d'Icare (l'intro) — Hubert-Félix Thiéfaine
+Viens fumer un p'tit joint — Bruno Blum</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Weed — Bob Marley
 Weed — High &amp; Mighty
 Weed Anthem - Baby G
 Weed Hand — Baby Bash
@@ -1207,48 +2761,121 @@
 What Happened to You? — The Offspring
 White Girls — Cam'ron
 Who's Got The Herb — 311
-Who say herb na fe smoke — Pierpoljak
-Y
-Y'a ka rouler — Vincent Malone
+Who say herb na fe smoke — Pierpoljak</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Cannabis</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Y'a ka rouler — Vincent Malone
 You Don't Know How it Feels — Tom Petty
 Young, Wild and Free — Wiz Khalifa &amp; Snoop Dogg &amp; Bruno Mars</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>Cocaïne</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>A
-Adrenaline — Rosetta Stone
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Adrenaline — Rosetta Stone
 Angeeeer — Marvin Gaye
 All Down The Line — The Rolling Stones
 A line allows progress, a circle does not — Bright Eyes
-Alak Okan - Shaka Ponk
-B
-Bales of Cocaine — Reverend Horton Heat
+Alak Okan - Shaka Ponk</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Bales of Cocaine — Reverend Horton Heat
 Bananas and Blow — Ween
 Be in Ly Video — Frank Zappa
 Big Shot — Billy Joel
@@ -1257,9 +2884,43 @@
 Blanche-Neige — Axelle Red
 Blinded by the Light — Bruce Springsteen, repris par Manfred Mann's Earth Band
 Bouncing Off the Walls — Sugarcult
-Break on Through (To the Other Side) — The Doors
-C
-Caina — Ruben Blades
+Break on Through (To the Other Side) — The Doors</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Caina — Ruben Blades
 Can't You Hear Me Knocking? — Rolling Stones
 Casey Jones — the Grateful Dead
 Champagne, Cocaïne, Nicotine stains — Lydia Lunch
@@ -1267,11 +2928,11 @@
 China Girl — David Bowie
 Cigaro — System of a Down
 Close To The Edge — Yes
-Cocaine — Eric Clapton[2]
+Cocaine — Eric Clapton
 Cocaine — Grateful Dead
 Cocaine — Jackson Browne
 Cocaine — Jimi Hendrix
-Cocaine — J.J. Cale[5]
+Cocaine — J.J. Cale
 Cocaïne — Raphaële Lannadère
 Cocaine — ZZ Top
 Cocaine and Camcorders — UNKLE avec South
@@ -1280,73 +2941,379 @@
 Cocaine &amp; Toupees — Mindless Self Indulgence
 Cocaine Blues écrit par T.J. Arnall d'abord enregistré par Roy Hogsed (en) et repris par Johnny Cash et Hank Williams III
 Cocaine Blues — Luke Jordan, repris par David Bromberg
-Cocaine Blues, une chanson traditionnelle enregistrée par lee Reverend Gary Davis, Bob Dylan, Dave Van Ronk, Nick Drake et Johnny Cash[2]
+Cocaine Blues, une chanson traditionnelle enregistrée par lee Reverend Gary Davis, Bob Dylan, Dave Van Ronk, Nick Drake et Johnny Cash
 Cocaine Blues — The Warlocks, à distinguer des autres chansons au même titre
 Cocaine Business — Noreaga
 Cocaine Decisions — Frank Zappa
 Cocaine Habit Blues — Memphis Jug Band, et aussi par The Grateful Dead
-Cocaine in my Brain — Dillinger[2]
+Cocaine in my Brain — Dillinger
 Cocaine Man — Baxter Dury
 Cocaine Rodeo — Mondo Generator
 Cocaine Socialism — Pulp
 Cocaïnomane — Les Vulgaires Machins
-Coco and Co —  Serge Gainsbourg[5]
+Coco and Co —  Serge Gainsbourg
 Cold Blooded — Rick James, repris par Ol' Dirty Bastard
 Cool The Engines — Boston
-Cookie — Jean Leloup
-D
-Dandy in the Underworld — T. Rex
+Cookie — Jean Leloup</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Dandy in the Underworld — T. Rex
 Days Before You Came — Placebo
 Der Kommissar — Falco
 Don't Stop Me Now — Queen
 Dopeman — N.W.A. (crack)
 Down in a Rabbit Hole — Bright Eyes
-Dr. Feelgood — Mötley Crüe[2]
+Dr. Feelgood — Mötley Crüe
 Drug Ballad — Eminem
-Du ferme — La Fouine
-E
-End Of The Line — Eric West
-F
-Feel Good Hit of the Summer — Queens of the Stone Age
+Du ferme — La Fouine</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>End Of The Line — Eric West</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Feel Good Hit of the Summer — Queens of the Stone Age
 Figured You Out — Nickelback
 Flying High (In the Friendly Sky) — Marvin Gaye
 Free Cocaine — The Dwarves
 Fun With Drugs — Velvet Acid Christ
-For Your Life — Led Zeppelin
-G
-Geek Stink Breath — Green Day
+For Your Life — Led Zeppelin</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Geek Stink Breath — Green Day
 Genius of Love — Tom Tom Club
 Gimme Cocaïne — Punish Yourself
 Give It Away — Red Hot Chili Peppers
 Glamour Profession — Steely Dan
 Gold Dust Woman — Fleetwood Mac
 Gold Mine Gutted — Bright Eyes
-Ghetto Dope — Master P
-H
-H —  Svinkels
+Ghetto Dope — Master P</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>H —  Svinkels
 Half on a Sack — Three 6 Mafia
 Happy Wacky Dust — Stanley Adams &amp; Oscar Levant
 High Times — Jamiroquai
 Hitch A Ride — Boston
 Home of the Brave — Spiritualized
 Hysteria — Scooter
-Hotel California — The Eagles[5]
-I
-I Get a Kick out of You — Frank Sinatra, d'autres. (brève mention à la Cocaïne)
+Hotel California — The Eagles</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>I Get a Kick out of You — Frank Sinatra, d'autres. (brève mention à la Cocaïne)
 I Hope I Didn't Just Give Away The Ending — New Radicals
 I'm A King Bee — Slim Harpo
 I need Drugs - Necro
 Invisible Touch — Genesis
-I'll Be Your Friend — Bright Eyes avec Neva Dinova en invitée
-J
-Just A Song Before I Go — Crosby, Stills &amp; Nash (David Crosby avait une addiction à la cocaïne free base)
-Je roule avec le shit squad — IAM
-K
-Kids — Eminem
+I'll Be Your Friend — Bright Eyes avec Neva Dinova en invitée</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Just A Song Before I Go — Crosby, Stills &amp; Nash (David Crosby avait une addiction à la cocaïne free base)
+Je roule avec le shit squad — IAM</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Kids — Eminem
 Koka Kola — The Clash
-Kokain — Rammstein
-L
-L'Artiste — Claude Dubois
+Kokain — Rammstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>L'Artiste — Claude Dubois
 Lady Divine - Johnny Hallyday (1981, album En pièces détachées)
 Life in the Fast Lane — Bright Eyes
 Life in the Fast Lane — Eagles
@@ -1356,30 +3323,166 @@
 Lysergia — Velvet Acid Christ
 La Blanche — Renaud
 La Guerre à la Drogue — Assassin
-La coco — Frehel
-M
-Master of Puppets — Metallica
+La coco — Frehel</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Master of Puppets — Metallica
 Megalomania — Black Sabbath
 Miami - Saez
 Moonlight Mile — The Rolling Stones
 More Bounce to the Ounce — Zapp &amp; Roger
 Morning Glory — Oasis
 Mutter, der Mann mit dem Koks ist da — Falco
-My Fault — Eminem
-N
-Narcotic — Liquido
+My Fault — Eminem</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Narcotic — Liquido
 Night of the Living Baseheads — Public Enemy
 Never Let Me Down Again — Depeche Mode
 New — No Doubt
 No Cocaine - Alborosie
 No Coke — Dr. Alban
 No Thing on Me (Cocaine Song) — Curtis Mayfield
-No Sugar tonight — The Guess Who
-O
-One Way Ticket — The Darkness
-Out Of Step — Minor Threat
-P
-Paris pas cher — Les Vieilles Salopes
+No Sugar tonight — The Guess Who</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>One Way Ticket — The Darkness
+Out Of Step — Minor Threat</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Paris pas cher — Les Vieilles Salopes
 Peruvian Cocaine — Immortal Technique
 Powder — Three Six Mafia
 Powder — Yellowcard
@@ -1388,18 +3491,120 @@
 Psycho — System of a Down
 Petite conne — Renaud
 Pump It Up — Elvis Costello
-Pétasse blanche- 1995[6]
-Q
-Quiet Storm — Mobb Deep
-R
-Real Thing — Alice in Chains
+Pétasse blanche- 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Quiet Storm — Mobb Deep</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Real Thing — Alice in Chains
 Rockin After Midnight — Marvin Gaye
 Rodéo — Zazie
 Ron's Got the Cocaine — Supersuckers
 Running to Stand Still — U2
-Rush Rush — Cam'ron
-S
-Sanctified — Nine Inch Nails
+Rush Rush — Cam'ron</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Sanctified — Nine Inch Nails
 Save Me — Shinedown
 Say No Go — De La Soul
 Shake the Dope Out — The Warlocks
@@ -1425,9 +3630,43 @@
 Sugarman — Sixto Rodriguez
 Superhuman — Velvet Revolver
 Sweet Cocaine — Fred Neil
-Swing on This — Alice in Chains
-T
-Tant de baisers perdus — Jacno
+Swing on This — Alice in Chains</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Tant de baisers perdus — Jacno
 Ten Crack Commandments — Biggie Smalls
 That Smell — Lynyrd Skynyrd
 The Joy in Forgetting, The Joy in Acceptance — Bright Eyes
@@ -1435,53 +3674,156 @@
 This Boy — Franz Ferdinand
 Time Out Of Mind — Steely Dan
 Toy Soldiers — Martika
-25 or 6 to 4 — Chicago
-U
-Untrust Us - Crystal Castles
-W
-White Devil — Alexisonfire
+25 or 6 to 4 — Chicago</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Untrust Us - Crystal Castles</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>White Devil — Alexisonfire
 The White Lady Loves You More — Elliott Smith
-White Line — Neil Young[5]
+White Line — Neil Young
 White Line Fever — Motörhead
 White Lines (Don't Do It) — Grandmaster Flash and Melle Mel (Une chanson anti-cocaïne)
 Who's Got the Crack? — The Moldy Peaches
-White Lady White Powder — Elton John[2]
+White Lady White Powder — Elton John
 Where Happiness Lives — Magnet (Even Johansen)
 White Slavery — Type O Negative
-Wild Horses — The Rolling Stones
-Y
-You Ain't Perfect — Young Jeezy
+Wild Horses — The Rolling Stones</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Cocaïne</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>You Ain't Perfect — Young Jeezy
 You Prefer Cocaine — Vitalic
-Yü-Gung (Fütter Mein Ego) — Einstürzende Neubauten
-Z</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Yü-Gung (Fütter Mein Ego) — Einstürzende Neubauten</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>Crack</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
         <is>
           <t>Cluckers — C-Murder
 Crack Pipes — Sage Francis
@@ -1498,31 +3840,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>Ecstasy</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
         <is>
           <t xml:space="preserve">Coloured City — Laurent Garnier
 Do Ecstasy With Me — The Magnetic Fields
@@ -1555,186 +3899,805 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>Hallucinogène</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Cette partie concerne les chansons sur les hallucinogènes tels que le LSD, la DMT, le peyotl ou la mescaline, etc.
-A
-Ayahuasca Experience — Meshuggah
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie concerne les chansons sur les hallucinogènes tels que le LSD, la DMT, le peyotl ou la mescaline, etc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Ayahuasca Experience — Meshuggah
 The Acid Commercial — Country Joe and the Fish
 Alan's Psychedelic Breakfast — Pink Floyd
 And She Was — Talking Heads
 Angel Dust — Gil Scott Heron (PCP)
 Are We The Waiting — Green Day
 As The World Dies, The Eyes Of God Grow Bigger — Sebadoh (LSD)
-Away With The Faeries — Inkubus Sukkubus
-B
-Bat Country — Avenged Sevenfold
+Away With The Faeries — Inkubus Sukkubus</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bat Country — Avenged Sevenfold
 Bike — Pink Floyd
-Blinded By the Light — Bruce Springsteen, Manfred Mann's Earth Band
-C
-Crystal Blue Persuasion — Tommy James and the Shondells
-D
-Day Tripper — The Beatles (LSD)[7]
+Blinded By the Light — Bruce Springsteen, Manfred Mann's Earth Band</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Crystal Blue Persuasion — Tommy James and the Shondells</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Day Tripper — The Beatles (LSD)
 Divine Moments of Truth — Shpongle (DMT)
-Do You Feel Like We Do — Peter Frampton (PCP)
-E
-Eight Miles High — The Byrds (chanson vantant les mérites du LSD)[7]
-F
-5D (Fifth Dimension) — The Byrds
-G
-Got to Get You into My Life — The Beatles
-Got Wet — Leak Bros.
-I
-I Am The Bullgod — Kid Rock
+Do You Feel Like We Do — Peter Frampton (PCP)</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Eight Miles High — The Byrds (chanson vantant les mérites du LSD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>5D (Fifth Dimension) — The Byrds</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Got to Get You into My Life — The Beatles
+Got Wet — Leak Bros.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>I Am The Bullgod — Kid Rock
 I Can Hear The Grass Grow — The Move
 I Did Acid With Caroline — Daniel Johnston
 I Feel Free — Cream
 I'm In Touch With Your World — The Cars
 Incense and Peppermints — Strawberry Alarm Clock
-I Still Wonder — Love
-K
-Kid Charlemagne — Steely Dan[2]
-L
-Legend of a Mind — The Moody Blues
+I Still Wonder — Love</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Kid Charlemagne — Steely Dan</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Legend of a Mind — The Moody Blues
 Let's Do It — Beastie Boys (PCP)
 L.S.D. — Hallucinogen
-£.S.D - The Pretty Things[2]
-Lucy In The Sky With Diamonds — Beatles[1]
-M
-Mangez-moi ! Mangez-moi ! — Billy Ze Kick (champignon hallucinogène)[2]
+£.S.D - The Pretty Things
+Lucy In The Sky With Diamonds — Beatles</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Mangez-moi ! Mangez-moi ! — Billy Ze Kick (champignon hallucinogène)
 Mellow Yellow — Donovan
 Merry Jane — Redman Feat. Nate Dogg &amp; Snoop Dogg
 Monsters In The Parasol — Queens of the Stone Age
 Mr. Tambourine Man — Bob Dylan
-My Fault — Eminem (Mushrooms)
-N
-No Sugar Tonight/New Mother Nature — The Guess Who
-No Time — The Guess Who
-P
-Pancake Breakfast — Kid Rock
+My Fault — Eminem (Mushrooms)</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No Sugar Tonight/New Mother Nature — The Guess Who
+No Time — The Guess Who</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Pancake Breakfast — Kid Rock
 Papagenu (He's My Sassafrass) — Tenacious D
 Paper Sun — Traffic
 Paris pas cher — Les Vieilles Salopes (LSD entre autres)
-Purple Haze — Jimi Hendrix (chanson sur le LSD)[7]
-R
-Rainy Day Mushroom Pillow — Strawberry Alarm Clock
+Purple Haze — Jimi Hendrix (chanson sur le LSD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Rainy Day Mushroom Pillow — Strawberry Alarm Clock
 Ride My See-Saw — The Moody Blues
-Rémy — Ludwig von 88
-S
-Salvia Divinorum — 1200 Micrograms
+Rémy — Ludwig von 88</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Salvia Divinorum — 1200 Micrograms
 Same as It Ever Was — House of Pain (PCP)
 Shroomz — Xzibit
-Speed King - Deep Purple[2]
+Speed King - Deep Purple
 Starchild — Inkubus Sukkubus
 The Stars That Play with Laughing Sam's Dice — Jimi Hendrix
-Strawberry Fields Forever — The Beatles (LSD)[7]
-Sunshine Superman — Donovan
-T
-Teenie Weenie Boppie — France Gall (LSD)
-The Crystal Ship - The Doors (LSD)[7]
-Tomorrow Never Knows — The Beatles (LSD)[7]
+Strawberry Fields Forever — The Beatles (LSD)
+Sunshine Superman — Donovan</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Teenie Weenie Boppie — France Gall (LSD)
+The Crystal Ship - The Doors (LSD)
+Tomorrow Never Knows — The Beatles (LSD)
 Trippin' Billies — Dave Matthews Band
 Try It — The Hollies
-Third Eye - Tool
-V
-Voir Thru — Leak Bros.
-Voyage au pays des vivants - Johnny Hallyday (1969, album Rivière… ouvre ton lit])
-W
-Waterworld — Leak Bros.
+Third Eye - Tool</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Voir Thru — Leak Bros.
+Voyage au pays des vivants - Johnny Hallyday (1969, album Rivière… ouvre ton lit])</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Hallucinogène</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Waterworld — Leak Bros.
 Whatever That Hurts — Tiamat (Psilocybe)
 White Bird — The Incredible String Band
-White Rabbit — Jefferson Airplane (LSD)[7]
+White Rabbit — Jefferson Airplane (LSD)
 Windowpane — Coil
 Windy — The Association
 World of the LSD User — Mushroomhead</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>Kétamine</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr">
         <is>
           <t>Disassociative — Marilyn Manson
 Hourglass — At the Drive-In
 K-hole — CocoRosie
 Kids of the K-Hole — NOFX
 Lost in the K-Hole — The Chemical Brothers
-Spécial K — Placebo[2]
+Spécial K — Placebo
 Space Travel is Boring — Modest Mouse</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>Médicaments psychotropes détournés</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr">
         <is>
           <t>Animal Nitrate — Suede
 Baby's Got a Temper — The Prodigy (Rohypnol)
@@ -1757,31 +4720,33 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>Méthamphétamine</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
         <is>
           <t>Brain stew — Green Day
 Geek Stink Breath — Green Day
@@ -1791,36 +4756,75 @@
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>Opiacés : héroïne, opium</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0-9
-2x4 — Blind Melon
-A
-A Baltimore Love Thing — 50 Cent
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>2x4 — Blind Melon</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>A Baltimore Love Thing — 50 Cent
 A Hard Rain's a-Gonna Fall — Bob Dylan
 Absinthe — Barbara [ Barbara / Barbara - Frédéric Botton ; 1972 ]
 Addicted to Chaos — Megadeth
@@ -1832,9 +4836,43 @@
 Another Girl, Another Planet — The Only Ones
 Ashes to Ashes — David Bowie
 Au creux de ton bras - Mano Solo
-Aux sombres héros de l'amer — Noir Désir
-B
-Bad — U2
+Aux sombres héros de l'amer — Noir Désir</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Bad — U2
 Baltimore Love Thing — 50 Cent
 The Beast — The Only Ones
 Beetlebum — Blur
@@ -1845,15 +4883,49 @@
 Bodhisattva — Steely Dan
 Brown Sugar — D'Angelo
 Brown Sugar — The Rolling Stones
-Brown Sugar — ZZ Top
-C
-California, Gracefully — Every Time I Die
+Brown Sugar — ZZ Top</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>California, Gracefully — Every Time I Die
 Call The Doctor — Spacemen 3
 Captain Jack — Billy Joel
 Carmelita — Warren Zevon
 Chase The Dragon — Beasts of Bourbon
 China Girl — David Bowie/Iggy Pop
-Chinese Rocks — The Heartbreakers[2] (repris comme Chinese Rock — The Ramones)
+Chinese Rocks — The Heartbreakers (repris comme Chinese Rock — The Ramones)
 Codine — Buffy Sainte-Marie (codéine)
 Codine — Donovan (codéine)
 Codéine — TTC (codéine)
@@ -1862,9 +4934,43 @@
 Comfortably Numb — Pink Floyd (pas vraiment sur l'héroïne mais plutôt sur Roger Waters, lui-même qui se fait un shoot pour combattre l'hépatite avant un concert)
 Communication on Opium — Autumn
 Cop Shoot Cop — Spiritualized
-Cotton Fields — The Pogues
-D
-Dame Blanche — Sefyu
+Cotton Fields — The Pogues</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Dame Blanche — Sefyu
 Dancing On Glass — Mötley Crüe
 Dead Flowers — The Rolling Stones
 Dead Men Tell No Tales — Motörhead
@@ -1873,20 +4979,156 @@
 Don't Bring Harry — The Stranglers
 Don't Mess With Doctor Dream — les Thompson Twins
 Drug Buddy — The Lemonheads
-Dumb — Nirvana
-E
-Encore un rhum — Soldat Louis
-F
-Fall to Pieces — Velvet Revolver
+Dumb — Nirvana</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Encore un rhum — Soldat Louis</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Fall to Pieces — Velvet Revolver
 Fire and Rain — James Taylor
-Fixing a Hole — The Beatles[1]
-G
-Gale — Jeanne-Marie Sens
+Fixing a Hole — The Beatles</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Gale — Jeanne-Marie Sens
 Givin' Up — The Darkness
 God Smack — Alice in Chains
-Golden Brown - The Stranglers
-H
-H. — Tool
+Golden Brown - The Stranglers</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>H. — Tool
 H-Eyes — The Ruts
 Habit — Pearl Jam
 Hand of Doom — Black Sabbath
@@ -1895,7 +5137,7 @@
 He Knows You Know — Marillion
 Heroes — David Bowie
 Heroin - Lou Reed
-Heroin — The Velvet Underground[2]
+Heroin — The Velvet Underground
 Heroin — John Frusciante
 Heroin Dreams — Life of Agony
 Heroin Face — The Cure
@@ -1905,16 +5147,84 @@
 Heroin vs. Prozac — The Brian Jonestown Massacre
 Heroin vs. Prozac, Revisited — The Brian Jonestown Massacre
 Horses — Patti Smith
-Hurt — Nine Inch Nails, repris par Johnny Cash
-I
-I Believe in You — Talk Talk
+Hurt — Nine Inch Nails, repris par Johnny Cash</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>I Believe in You — Talk Talk
 I'm Your Captain — Grand Funk Railroad
-I'm Waiting for the Man - The Velvet Underground (chanson sur un drogué attendant son dealer)[8]
+I'm Waiting for the Man - The Velvet Underground (chanson sur un drogué attendant son dealer)
 Instant Hit — The Slits
 I Will Be Grateful for This Day — Bright Eyes
-It's Not Enough — Heartbreakers
-J
-Jane Says — Jane's Addiction
+It's Not Enough — Heartbreakers</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Jane Says — Jane's Addiction
 Jesus Shootin' Heroin — The Flaming Lips
 Jones Comin' Down — The Last Poets
 Jour De Chance — Les Rats
@@ -1923,15 +5233,83 @@
 Junkie Nurse — Royal Trux
 Junkie Slip — The Clash
 Just Like Tom Thumb's Blues — Bob Dylan
-Just One Fix — Ministry
-K
-Kings Crossing — Elliott Smith
+Just One Fix — Ministry</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Kings Crossing — Elliott Smith
 Kiss Me Deadly — Generation X
 Kicking the Gong Around — Cab Calloway (opium)
 Kickstart My Heart — Mötley Crüe
-Kokain — Rammstein
-L
-La ballade de Jim — Alain Souchon
+Kokain — Rammstein</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>La ballade de Jim — Alain Souchon
 La blanche Renaud
 La Came — Rasta bigoud
 Laisse tomber Hélène — LIM
@@ -1949,14 +5327,48 @@
 Lust for Life — Iggy Pop
 Looking for a Kiss — The New York Dolls
 La Belle et la Bête  — Babyshambles
-" Les dégâts de la drogue" -Krysis/ KLS
-M
-Mainliner — Social Distortion
+" Les dégâts de la drogue" -Krysis/ KLS</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Mainliner — Social Distortion
 Master of Puppets — Metallica
 The Man — Megadeth
 Mango Song, The — Phish
 Medication — Spiritualized
-Mr. Brownstone — Guns N' Roses (sur le dealer d'héroïne du même nom, fournisseur du groupe)[8]
+Mr. Brownstone — Guns N' Roses (sur le dealer d'héroïne du même nom, fournisseur du groupe)
 Mojo Pin — Jeff Buckley
 Mon héroïne — Pierrick Lilliu
 Monkey Man — Rolling Stones
@@ -1965,10 +5377,44 @@
 Mutiny in Heaven — The Birthday Party
 My Sweet Prince — Placebo
 My Lady Heroine - Serge Gainsbourg
-My Mom - Eminem
-N
-Naked in the Rain — Red Hot Chili Peppers
-The Needle and the Damage Done — Neil Young[3]
+My Mom - Eminem</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Naked in the Rain — Red Hot Chili Peppers
+The Needle and the Damage Done — Neil Young
 The Needle and the Spoon — Lynyrd Skynyrd
 Not an Addict — K's Choice
 Needle in the Hay — Elliott Smith
@@ -1976,9 +5422,43 @@
 Not If You Were the Last Junkie on Earth — The Dandy Warhols
 Nurture my Pig — Reverend Horton Heat
 The Needle Lies — Queensrÿche
-Numb — U2
-O
-OD Catastrophe — Spacemen 3
+Numb — U2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>OD Catastrophe — Spacemen 3
 Ode to Street Hassle — Spacemen 3
 Old Fashion Morphine — Jolie Holland
 One Track Mind — The Heartbreakers
@@ -1988,9 +5468,43 @@
 Opium — Moonspell
 Opium Shuffle — Death in Vegas
 Opium Trail — Thin Lizzy
-Otherside — Macklemore
-P
-Paris pas cher — Les Vieilles Salopes (héroïne entre autres)
+Otherside — Macklemore</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Paris pas cher — Les Vieilles Salopes (héroïne entre autres)
 Parker's Band — Steely Dan
 Passenger — Grateful Dead
 Perche lo fai — Marco Masini
@@ -2002,26 +5516,128 @@
 Pool Shark — Sublime
 Poppies — Marcy Playground
 Purple Pills — D-12
-Puff Puff Pass — Young Buck ft. Kynja Marley
-Q
-Que sont-elles devenues ? - Saez
-R
-Redneck Rampage — Jello Biafra
+Puff Puff Pass — Young Buck ft. Kynja Marley</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Que sont-elles devenues ? - Saez</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Redneck Rampage — Jello Biafra
 Real Thing — Alice In Chains
-Rimbaud — Allain Leprest [1988]
+Rimbaud — Allain Leprest 
 Rock 'N' Roll Heart — Eric Clapton
 Run Run Run — The Velvet Underground
-Running to Stand Still — U2
-S
-Sam Stone — John Prine
+Running to Stand Still — U2</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Sam Stone — John Prine
 Self Destruct — Staind
 Serais-tu là — Mylène Farmer
-Setting Sun - The Chemical Brothers[3]
+Setting Sun - The Chemical Brothers
 She's Like Heroin — System of a Down
 She Talks to Angels — The Black Crowes
 Signed D.C. — Love
 Sister Midnight — Iggy Pop
-Sister Morphine — The Rolling Stones (coécrit avec Marianne Faithfull)[2]
+Sister Morphine — The Rolling Stones (coécrit avec Marianne Faithfull)
 Sister Ray — The Velvet Underground
 Sledgehammer — Peter Gabriel
 Slither — Velvet Revolver
@@ -2035,9 +5651,43 @@
 Speed My Speed — Alain Kan
 Sue — The Brian Jonestown Massacre
 Sunday's Slave — Nick Cave and the Bad Seeds
-Sweet Morpheus — Inkubus Sukkubus
-T
-Teaspoon - Can
+Sweet Morpheus — Inkubus Sukkubus</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Teaspoon - Can
 Temporary Remedy — Ben Harper
 Tension Head — Queens of the Stone Age
 The Dope Feels Good — The Warlocks
@@ -2050,15 +5700,117 @@
 Too High Too Fly — Dokken
 Too Much Junkie Business — The Heartbreakers
 Tragick Magick — Dr. John avec Hank Crawford
-There She Goes — The La's[3]
-U
-Under the Bridge — Red Hot Chili Peppers
+There She Goes — The La's</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Under the Bridge — Red Hot Chili Peppers
 USA — The Pogues
-Use the Man — Megadeth
-V
-Voodoo — Godsmack
-W
-Waiting for the Man — The Velvet Underground
+Use the Man — Megadeth</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Voodoo — Godsmack</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Waiting for the Man — The Velvet Underground
 We'll Have a Riot Doing Heroin — The Queers
 White Horse — Laid Back
 White Lady Loves You More — Elliott Smith
@@ -2066,55 +5818,228 @@
 White Punks on Dope — The Tubes
 Wild Horses — The Rolling Stones
 World's on Heroin — ALL
-Would? — Alice in Chains
-Y
-Your Own Backyard — Dion DiMucci
-Z
-Zenobe — Renaud (sur l'album Les introuvables)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+Would? — Alice in Chains</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Your Own Backyard — Dion DiMucci</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Opiacés : héroïne, opium</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Zenobe — Renaud (sur l'album Les introuvables)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Cette partie concerne les chansons à propos des psychotropes non listés précédemment ou des chansons à propos des drogues en général.
-0-9
-12 Days of Christmas — Tenacious D
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette partie concerne les chansons à propos des psychotropes non listés précédemment ou des chansons à propos des drogues en général.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0-9</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>12 Days of Christmas — Tenacious D
 33 1/3 — The Jesus and Mary Chain
-5.15 — The Who (Uppers and downers)
-A
-A Day in the Life — The Beatles[1]
+5.15 — The Who (Uppers and downers)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>A Day in the Life — The Beatles
 A New Low in Getting High — Brian Jonestown Massacre
 Alabama Song (Whiskey Bar) — Kurt Weill et Bertolt Brecht
 Along Comes Mary — The Association
 Always Crashing in the Same Car — David Bowie (à propos de la rechute dans la drogue)
 A Spindle, a Darkness, a Fever, and a Necklace — Bright Eyes (sur l'usage de drogues en général)
-Aux enfants de la chance — Serge Gainsbourg
-B
-Battersea — Hooverphonic
+Aux enfants de la chance — Serge Gainsbourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Battersea — Hooverphonic
 Been Smoking Too Long — Nick Drake
 Benzin — Rammstein (sur les solvants, mais mentionne aussi l'héroïne, l'alcool, la nicotine et la cocaïne et d'autres)
 Bless Da 40 Oz — Bone Thugs-N-Harmony
@@ -2122,26 +6047,94 @@
 Brand New Key — Melanie
 Breaking the Habit — Linkin Park
 Breaking Glass — David Bowie (à propos de la rechute dans la drogue)
-Brigade des stups — Serge Gainsbourg
-C
-Cannabis — Nino Ferrer (énumération de drogues)
+Brigade des stups — Serge Gainsbourg</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Cannabis — Nino Ferrer (énumération de drogues)
 Carbona Not Glue — The Ramones (solvants)
 Champagne Supernova — Oasis
 Children's Crusade — Sting (trafic de drogue)
 Chocolat — Thomas Fersen (Trafic de drogue)
-Cigarettes and Alcohol — Oasis (alcool, nicotine, cocaïne)[1]
+Cigarettes and Alcohol — Oasis (alcool, nicotine, cocaïne)
 Clint Eastwood — Gorillaz
 Cloud Nine — The Temptations
 Clean — Depeche Mode
 Combination — Aerosmith
 Commercial for Levi — Placebo
-Crossfire  — Stevie Ray Vaughan
-D
-Datura Dream — Tamtrum (sur la Datura)
+Crossfire  — Stevie Ray Vaughan</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Datura Dream — Tamtrum (sur la Datura)
 Dealer — Pierre Perret
 Des Drogues - Saez
 Doctor Jimmy — The Who (sur les amphétamines et l'alcool)
-Doctor Robert — The Beatles (sur les dealers)[2]
+Doctor Robert — The Beatles (sur les dealers)
 Doctor Stone — The Leaves (sur les dealers)
 Don't Leave Home — Dido (sur l'addiction)
 Dope - Lady Gaga
@@ -2149,13 +6142,81 @@
 Dried Up, Tied and Dead to the World — Marilyn Manson
 Druganaut — Black Mountain
 Drug Buddy — Evan Dando &amp; Juliana Hatfield
-Drug Train — The Cramps[3]
+Drug Train — The Cramps
 Drugs Are Good — NOFX
-Drugs or Me — Jimmy Eat World
-E
-Everything Must Belong Somewhere — Bright Eyes (alcool, LSD)
-F
-Fais ce que je dis (pas ce que je fais) - Johnny Hallyday (1979, album Hollywood)
+Drugs or Me — Jimmy Eat World</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Everything Must Belong Somewhere — Bright Eyes (alcool, LSD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Fais ce que je dis (pas ce que je fais) - Johnny Hallyday (1979, album Hollywood)
 Feel Good Hit of the Summer — Queens of the Stone Age (nicotine, Valium, Vicodin, marijuana, ecstasy, alcool, cocaïne)
 First It Giveth — Queens of the Stone Age
 Flippo — Percubaba
@@ -2163,31 +6224,235 @@
 Flossin' — Mike Jones f./Mig Moe
 Fluffhead — Phish (« But I've got some powerful pills. »)
 Frittering — Mercury Rev
-Fume — Beck (protoxyde d'azote)
-G
-Ganz Wien — Falco (rimes avec Mozambine (méthaqualone), codéine, héroïne, cocaïne et formalin (formaldehyde))
-H
-Handshake Drugs — Wilco
+Fume — Beck (protoxyde d'azote)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Ganz Wien — Falco (rimes avec Mozambine (méthaqualone), codéine, héroïne, cocaïne et formalin (formaldehyde))</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Handshake Drugs — Wilco
 Hashish —  BO de Hair (énumération de drogues)
 Here Come the Nice — Small Faces (sur les dealers)
-Hi, Hi, Hi - Paul McCartney et les Wings[1]
+Hi, Hi, Hi - Paul McCartney et les Wings
 Higher Power — Boston
-Honey, This Mirror isn't Big Enough for the Two of Us — My Chemical Romance
-I
-I Don't Like the Drugs (But the Drugs Like Me) — Marilyn Manson
+Honey, This Mirror isn't Big Enough for the Two of Us — My Chemical Romance</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>I Don't Like the Drugs (But the Drugs Like Me) — Marilyn Manson
 I'm Straight — The Modern Lovers (anti-drogue)
 I Need Drugs — Necro
 Intoxication — Disturbed
 I've Had Enough — The Who (référence à des Pills)
-I Want a New Drug - Huey Lewis[2]
-I Was Thinking I Could Clean Up for Christmas — Aimee Mann
-J
-Jaded — Green Day
-K
-Keep the Customer Satisfied — Simon and Garfunkel (trafic de drogue)
-King Midas in Reverse — The Hollies (addiction)
-L
-La Came — Daniel Helin
+I Want a New Drug - Huey Lewis
+I Was Thinking I Could Clean Up for Christmas — Aimee Mann</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Jaded — Green Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Keep the Customer Satisfied — Simon and Garfunkel (trafic de drogue)
+King Midas in Reverse — The Hollies (addiction)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>La Came — Daniel Helin
 Lacquerhead — Primus (solvants)
 Le blues du toxicomane — Svinkels
 Les Dingues et les paumés - Hubert-Félix Thiéfaine
@@ -2195,18 +6460,86 @@
 Lieber Tee — Die Ärzte
 Limb — Limb — Sebadoh
 Loose Leaves — Bright Eyes (alcool, prescription de drogues)
-Luv 'n' Haight — Sly and The Family Stone
-M
-Maman flashe et Papa flippe — Richard Gotainer
+Luv 'n' Haight — Sly and The Family Stone</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Maman flashe et Papa flippe — Richard Gotainer
 Medication — The Chocolate Watchband (à propos des Pills)
 Medicine Jar — Wings (sur l'abus de médicaments et ceux qui en sont morts)
 Mercy Me — Alkaline Trio
 Mistress — Disturbed
 Monkey — George Michael (addiction aux drogues dures)
 Morphine — Michael Jackson (addiction à la morphine et au demerol)
-Mother's Little Helper — The Rolling Stones (tranquillisants, amphétamine)
-N
-New Kind of Kick — The Cramps (Assortiment de drogue, protoxyde d'azote)
+Mother's Little Helper — The Rolling Stones (tranquillisants, amphétamine)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>New Kind of Kick — The Cramps (Assortiment de drogue, protoxyde d'azote)
 Nic Fit — Sonic Youth (tabac)
 Night After Night (Out of the Shadows) — The Rasmus
 No Lies, Just Love — Bright Eyes (pilules, alcool)
@@ -2216,21 +6549,123 @@
 Nobody Home — Pink Floyd (Nicotine stains on my fingers)
 Normal — Porcupine Tree
 Nothing Gets Crossed Out — Bright Eyes
-Now I Wanna Sniff Some Glue — The Ramones (solvants type colle)[2]
-P
-Padriac My Prince — Bright Eyes
+Now I Wanna Sniff Some Glue — The Ramones (solvants type colle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Padriac My Prince — Bright Eyes
 People Who Died — Jim Carroll (ODs)
 Pump Up the Valuum — NOFX
-The Punk and the Godfather — The Who
-R
-Road to Joy — Bright Eyes
-Rocketman — Elton John
-S
-Scars, Four Eyes — Sebadoh
+The Punk and the Godfather — The Who</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Road to Joy — Bright Eyes
+Rocketman — Elton John</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Scars, Four Eyes — Sebadoh
 Shake the Dope Out — The Warlocks
 She Cracked — the Modern Lovers (anti-drogue)
 Sentimental — Porcupine Tree
-She's a Rainbow - The Rolling Stones[1]
+She's a Rainbow - The Rolling Stones
 Sing in Silence — Sonata Arctica (anti-drogue)
 Sippin on Some Syrup — Three 6 Mafia
 Smell of Petroleum — The Pogues (LSD, Marijuana)
@@ -2238,13 +6673,47 @@
 Stoned — Smash Mouth
 Stoned — Dido
 Stoned Faces Don't Lie — Sir Douglas Quintet  (trafic de drogue)
-Sunday Morning — Velvet Underground
-T
-That Girl Suicide — Brian Jonestown Massacre
+Sunday Morning — Velvet Underground</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>That Girl Suicide — Brian Jonestown Massacre
 The Center of the World — Bright Eyes (pilules)
 That Smell — Lynyrd Skynyrd (anti-drogue)
 The Dope Show — Marilyn Manson
-The Drugs Don't Work — The Verve[3]
+The Drugs Don't Work — The Verve
 The Glass Prison — Dream Theater (alcoolisme)
 The New Zero — Rasputina (méthamphétamine ou cocaïne)
 The Old Dope Peddler — Tom Lehrer (humoristique)
@@ -2256,15 +6725,117 @@
 Tightrope  — Stevie Ray Vaughan (rechute)
 Toujours être ailleurs — Noir Désir (drogues en général)
 Trip At the Brain — Suicidal Tendencies
-Tripping — The Pretty Things (amphétamine, LSD)
-U
-Un éléphant me regarde - Antoine[2]
-Undun — The Guess Who (addiction)
-V
-Vagabond Ways — Marianne Faithfull
-Villiers Terrace — Echo &amp; the Bunnymen (anti-drogue)
-W
-Wasting Time — Kid Rock
+Tripping — The Pretty Things (amphétamine, LSD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Un éléphant me regarde - Antoine
+Undun — The Guess Who (addiction)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Vagabond Ways — Marianne Faithfull
+Villiers Terrace — Echo &amp; the Bunnymen (anti-drogue)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Wasting Time — Kid Rock
 We Are All on Drugs — Weezer
 Welcome to Paradise — Green Day
 Welcome to the Jungle — Guns N' Roses (trafic de drogue)
@@ -2273,11 +6844,79 @@
 White Lightning — George Jones
 Whoops, I OD'd — NOFX (OD)
 Willin — Little Feat (marijuana, amphétamines, vin)
-Wino Junko — Wings
-Y
-You Caught Me Smilin — Sly and the Family Stone (drogues dures)
-Z
-Zoo Station — U2 (protoxyde d'azote)</t>
+Wino Junko — Wings</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>You Caught Me Smilin — Sly and the Family Stone (drogues dures)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_de_chansons_ayant_trait_aux_psychotropes</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Zoo Station — U2 (protoxyde d'azote)</t>
         </is>
       </c>
     </row>
